--- a/Py4E/Paper/expertScore.xlsx
+++ b/Py4E/Paper/expertScore.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rdi/BeDeveloper/Python/Py4e/Py4E/Paper/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7F16FCAD-3210-DE47-B165-D46708C965AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DAEC9E0-4849-AE49-8B7C-C878FEEC3306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="3080" yWindow="2000" windowWidth="27840" windowHeight="16940" xr2:uid="{E0B521C3-F9D9-DA48-AB77-E202A553299C}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>expert</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -53,6 +53,37 @@
   <si>
     <t>项目经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>专家2</t>
+  </si>
+  <si>
+    <t>专家3</t>
+  </si>
+  <si>
+    <t>专家4</t>
+  </si>
+  <si>
+    <t>专家5</t>
+  </si>
+  <si>
+    <t>专家6</t>
+  </si>
+  <si>
+    <t>专家7</t>
+  </si>
+  <si>
+    <t>专家8</t>
+  </si>
+  <si>
+    <t>专家9</t>
+  </si>
+  <si>
+    <t>专家10</t>
   </si>
 </sst>
 </file>
@@ -419,7 +450,7 @@
   <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="A2" sqref="A2:A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -442,8 +473,8 @@
       </c>
     </row>
     <row r="2" spans="1:5">
-      <c r="A2">
-        <v>1</v>
+      <c r="A2" t="s">
+        <v>5</v>
       </c>
       <c r="B2">
         <v>4</v>
@@ -459,8 +490,8 @@
       </c>
     </row>
     <row r="3" spans="1:5">
-      <c r="A3">
-        <v>2</v>
+      <c r="A3" t="s">
+        <v>6</v>
       </c>
       <c r="B3">
         <v>4</v>
@@ -476,8 +507,8 @@
       </c>
     </row>
     <row r="4" spans="1:5">
-      <c r="A4">
-        <v>3</v>
+      <c r="A4" t="s">
+        <v>7</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -493,8 +524,8 @@
       </c>
     </row>
     <row r="5" spans="1:5">
-      <c r="A5">
-        <v>4</v>
+      <c r="A5" t="s">
+        <v>8</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -510,8 +541,8 @@
       </c>
     </row>
     <row r="6" spans="1:5">
-      <c r="A6">
-        <v>5</v>
+      <c r="A6" t="s">
+        <v>9</v>
       </c>
       <c r="B6">
         <v>4</v>
@@ -527,8 +558,8 @@
       </c>
     </row>
     <row r="7" spans="1:5">
-      <c r="A7">
-        <v>6</v>
+      <c r="A7" t="s">
+        <v>10</v>
       </c>
       <c r="B7">
         <v>3</v>
@@ -544,8 +575,8 @@
       </c>
     </row>
     <row r="8" spans="1:5">
-      <c r="A8">
-        <v>7</v>
+      <c r="A8" t="s">
+        <v>11</v>
       </c>
       <c r="B8">
         <v>4</v>
@@ -561,8 +592,8 @@
       </c>
     </row>
     <row r="9" spans="1:5">
-      <c r="A9">
-        <v>8</v>
+      <c r="A9" t="s">
+        <v>12</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -578,8 +609,8 @@
       </c>
     </row>
     <row r="10" spans="1:5">
-      <c r="A10">
-        <v>9</v>
+      <c r="A10" t="s">
+        <v>13</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -595,8 +626,8 @@
       </c>
     </row>
     <row r="11" spans="1:5">
-      <c r="A11">
-        <v>10</v>
+      <c r="A11" t="s">
+        <v>14</v>
       </c>
       <c r="B11">
         <v>3</v>
